--- a/data/lnu/original_data/Open APC Sweden - Lnu 2019.xlsx
+++ b/data/lnu/original_data/Open APC Sweden - Lnu 2019.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11870" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>institution</t>
   </si>
@@ -282,12 +282,6 @@
   </si>
   <si>
     <t>Uludag University</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -615,7 +609,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -671,8 +665,8 @@
       <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
-        <v>82</v>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -688,8 +682,8 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -705,8 +699,8 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>83</v>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -722,8 +716,8 @@
       <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>82</v>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -739,8 +733,8 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>83</v>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -756,8 +750,8 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>82</v>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -773,8 +767,8 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>82</v>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -790,8 +784,8 @@
       <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>82</v>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -807,8 +801,8 @@
       <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
-        <v>82</v>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -824,8 +818,8 @@
       <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
-        <v>83</v>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -841,8 +835,8 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>82</v>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -858,8 +852,8 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
-        <v>83</v>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -875,8 +869,8 @@
       <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>83</v>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -892,8 +886,8 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>83</v>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -909,8 +903,8 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>83</v>
+      <c r="E16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -926,8 +920,8 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
-        <v>83</v>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -943,8 +937,8 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
-        <v>83</v>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -960,8 +954,8 @@
       <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
-        <v>83</v>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -977,8 +971,8 @@
       <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
-        <v>82</v>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -994,8 +988,8 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
-        <v>83</v>
+      <c r="E21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1011,8 +1005,8 @@
       <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
-        <v>82</v>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1028,8 +1022,8 @@
       <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" t="s">
-        <v>83</v>
+      <c r="E23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1045,8 +1039,8 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>83</v>
+      <c r="E24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1062,8 +1056,8 @@
       <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
-        <v>83</v>
+      <c r="E25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1079,8 +1073,8 @@
       <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E26" t="s">
-        <v>82</v>
+      <c r="E26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1096,8 +1090,8 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
-        <v>83</v>
+      <c r="E27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1113,8 +1107,8 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
-        <v>83</v>
+      <c r="E28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1130,8 +1124,8 @@
       <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
-        <v>83</v>
+      <c r="E29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1147,8 +1141,8 @@
       <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="s">
-        <v>83</v>
+      <c r="E30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1164,8 +1158,8 @@
       <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="E31" t="s">
-        <v>83</v>
+      <c r="E31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1181,8 +1175,8 @@
       <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E32" t="s">
-        <v>83</v>
+      <c r="E32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1198,8 +1192,8 @@
       <c r="D33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
-        <v>83</v>
+      <c r="E33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -1215,8 +1209,8 @@
       <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="E34" t="s">
-        <v>83</v>
+      <c r="E34" t="b">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>76</v>
@@ -1235,8 +1229,8 @@
       <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
-        <v>83</v>
+      <c r="E35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -1252,8 +1246,8 @@
       <c r="D36" t="s">
         <v>61</v>
       </c>
-      <c r="E36" t="s">
-        <v>83</v>
+      <c r="E36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -1269,8 +1263,8 @@
       <c r="D37" t="s">
         <v>42</v>
       </c>
-      <c r="E37" t="s">
-        <v>83</v>
+      <c r="E37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -1286,8 +1280,8 @@
       <c r="D38" t="s">
         <v>41</v>
       </c>
-      <c r="E38" t="s">
-        <v>83</v>
+      <c r="E38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -1303,8 +1297,8 @@
       <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" t="s">
-        <v>82</v>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -1320,8 +1314,8 @@
       <c r="D40" t="s">
         <v>65</v>
       </c>
-      <c r="E40" t="s">
-        <v>82</v>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -1337,8 +1331,8 @@
       <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" t="s">
-        <v>82</v>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -1354,8 +1348,8 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="E42" t="s">
-        <v>83</v>
+      <c r="E42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -1371,8 +1365,8 @@
       <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" t="s">
-        <v>83</v>
+      <c r="E43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -1388,8 +1382,8 @@
       <c r="D44" t="s">
         <v>73</v>
       </c>
-      <c r="E44" t="s">
-        <v>83</v>
+      <c r="E44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -1405,8 +1399,8 @@
       <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="E45" t="s">
-        <v>83</v>
+      <c r="E45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -1422,8 +1416,8 @@
       <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="E46" t="s">
-        <v>83</v>
+      <c r="E46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -1439,8 +1433,8 @@
       <c r="D47" t="s">
         <v>18</v>
       </c>
-      <c r="E47" t="s">
-        <v>83</v>
+      <c r="E47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -1456,8 +1450,8 @@
       <c r="D48" t="s">
         <v>43</v>
       </c>
-      <c r="E48" t="s">
-        <v>83</v>
+      <c r="E48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -1473,8 +1467,8 @@
       <c r="D49" t="s">
         <v>33</v>
       </c>
-      <c r="E49" t="s">
-        <v>83</v>
+      <c r="E49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -1490,8 +1484,8 @@
       <c r="D50" t="s">
         <v>20</v>
       </c>
-      <c r="E50" t="s">
-        <v>83</v>
+      <c r="E50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -1507,8 +1501,8 @@
       <c r="D51" t="s">
         <v>50</v>
       </c>
-      <c r="E51" t="s">
-        <v>83</v>
+      <c r="E51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -1524,8 +1518,8 @@
       <c r="D52" t="s">
         <v>24</v>
       </c>
-      <c r="E52" t="s">
-        <v>83</v>
+      <c r="E52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -1541,8 +1535,8 @@
       <c r="D53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
-        <v>83</v>
+      <c r="E53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -1558,8 +1552,8 @@
       <c r="D54" t="s">
         <v>45</v>
       </c>
-      <c r="E54" t="s">
-        <v>83</v>
+      <c r="E54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -1575,8 +1569,8 @@
       <c r="D55" t="s">
         <v>67</v>
       </c>
-      <c r="E55" t="s">
-        <v>83</v>
+      <c r="E55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -1592,8 +1586,8 @@
       <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="E56" t="s">
-        <v>83</v>
+      <c r="E56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -1609,8 +1603,8 @@
       <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="E57" t="s">
-        <v>83</v>
+      <c r="E57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -1626,8 +1620,8 @@
       <c r="D58" t="s">
         <v>37</v>
       </c>
-      <c r="E58" t="s">
-        <v>82</v>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -1640,8 +1634,8 @@
       <c r="C59">
         <v>4287.4399999999996</v>
       </c>
-      <c r="E59" t="s">
-        <v>83</v>
+      <c r="E59" t="b">
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>79</v>
@@ -1666,8 +1660,8 @@
       <c r="C60">
         <v>15870.3</v>
       </c>
-      <c r="E60" t="s">
-        <v>83</v>
+      <c r="E60" t="b">
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>81</v>
@@ -1692,8 +1686,8 @@
       <c r="C61">
         <v>24196.91</v>
       </c>
-      <c r="E61" t="s">
-        <v>82</v>
+      <c r="E61" t="b">
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>62</v>
